--- a/data/trans_bre/P16-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.515591072623002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.824233160796019</v>
+        <v>2.824233160795997</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2784526733598351</v>
@@ -649,7 +649,7 @@
         <v>0.04757012736224897</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.05130248490643716</v>
+        <v>0.05130248490643675</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.120266608872744</v>
+        <v>4.46165616863154</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.938446428446902</v>
+        <v>4.417451335265446</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.78942875382409</v>
+        <v>-4.797659605021236</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.248736639899631</v>
+        <v>-3.56505119872322</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.08615509195128138</v>
+        <v>0.09877968677044954</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07615228117077444</v>
+        <v>0.08401133067387792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.08365243626477893</v>
+        <v>-0.08532455760787576</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.05588474160469032</v>
+        <v>-0.06094165747019981</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.00555670449002</v>
+        <v>18.69258006469524</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.0643545575914</v>
+        <v>19.76141442296208</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.719673825002751</v>
+        <v>9.952619620298332</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.458678344000598</v>
+        <v>8.777634400991822</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4928844133732038</v>
+        <v>0.4803561446200524</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4197311432217248</v>
+        <v>0.4256031566055968</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1961352741010695</v>
+        <v>0.2028615705180073</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1630119181670771</v>
+        <v>0.170423439388525</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.162001124911116</v>
+        <v>5.756981838055528</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.046160861548429</v>
+        <v>6.28313504622646</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.137585816238841</v>
+        <v>-0.7067525611812902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.196399163446825</v>
+        <v>-1.998801868217349</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1435992122332825</v>
+        <v>0.1260561621118911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1157491510476492</v>
+        <v>0.1266064541713075</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03634258569137264</v>
+        <v>-0.01407678951974558</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05555339984062809</v>
+        <v>-0.03604346569869835</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>20.5229328067787</v>
+        <v>20.43237466176328</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>21.45034336284199</v>
+        <v>21.58375648715333</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.34536820024983</v>
+        <v>13.62195052266935</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9.856573873815556</v>
+        <v>10.86672475478043</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.573068746539608</v>
+        <v>0.5761815787186132</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.471836507852899</v>
+        <v>0.4862005860581797</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2860013245592877</v>
+        <v>0.2914920960573099</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1938588015755684</v>
+        <v>0.2204880681310227</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>14.16559353667197</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15.46833601068794</v>
+        <v>15.46833601068796</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3231674614559313</v>
@@ -849,7 +849,7 @@
         <v>0.2538593863120768</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2705806537548434</v>
+        <v>0.2705806537548437</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.652979301171347</v>
+        <v>4.518601150012027</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.340697885953946</v>
+        <v>4.516159552819479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.948852406354211</v>
+        <v>4.225469768325612</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.260121347467045</v>
+        <v>7.887120180092289</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0982854225832509</v>
+        <v>0.1090359594540018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07126251445534561</v>
+        <v>0.07586439272967932</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1111147329436298</v>
+        <v>0.06962939547636872</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1422901975529361</v>
+        <v>0.1313201549697454</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>21.93426761620636</v>
+        <v>22.77882689672472</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.97868205627356</v>
+        <v>18.8988037564055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22.79193282034806</v>
+        <v>21.79668771500412</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.46939798835935</v>
+        <v>22.47068140763762</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.551034255320487</v>
+        <v>0.6006657949214197</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3572690377537112</v>
+        <v>0.3579225419313837</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4361911900907104</v>
+        <v>0.4055265411438418</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4235011945593786</v>
+        <v>0.4236911400702849</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.347701075089446</v>
+        <v>3.861135265108065</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>10.40860303598969</v>
+        <v>10.22996228766517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.76992622402096</v>
+        <v>1.861799562528671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.283104517369141</v>
+        <v>3.209400418375615</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06887871806307146</v>
+        <v>0.08033519173009332</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1885331073355851</v>
+        <v>0.1904558569279113</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03285242699481435</v>
+        <v>0.03446709482487865</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.05681451136450638</v>
+        <v>0.05820137809870713</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.93551359077129</v>
+        <v>13.24016390507485</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>19.75886431775526</v>
+        <v>19.25098682330106</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.55509267576771</v>
+        <v>10.70805120099356</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11.93286652092986</v>
+        <v>11.84121220543278</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.29379625723932</v>
+        <v>0.3057213119278109</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3943399303395891</v>
+        <v>0.3883390911235619</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2102490783829182</v>
+        <v>0.2170816564527284</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2260971188113655</v>
+        <v>0.2297176468370241</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>21.83107511230532</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18.93720875177369</v>
+        <v>18.9372087517737</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5156061580632606</v>
@@ -1049,7 +1049,7 @@
         <v>0.4338673225305443</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3745946442237071</v>
+        <v>0.3745946442237074</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>14.25408460056504</v>
+        <v>14.5554209151987</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>19.29233678524193</v>
+        <v>19.75786825566999</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.74092490401677</v>
+        <v>16.74994285309276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13.26840867714258</v>
+        <v>13.43066487942858</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3168033724146024</v>
+        <v>0.3278398208064508</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3604864976337939</v>
+        <v>0.3615198573788801</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3165832162021174</v>
+        <v>0.3139505088722369</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2403551857201378</v>
+        <v>0.2488214959791585</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>27.40665188537311</v>
+        <v>27.97054045066943</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>30.34889629591368</v>
+        <v>30.58873524965032</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>27.0925438239692</v>
+        <v>27.06927420728767</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>24.18429351519372</v>
+        <v>24.6097646646268</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7525563466330989</v>
+        <v>0.7777599706894728</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6503957350242816</v>
+        <v>0.6595888359796829</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5837396536217665</v>
+        <v>0.5745814825849839</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5118611491508459</v>
+        <v>0.5301331655916997</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>45.33069003496488</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36.74839542506636</v>
+        <v>36.74839542506634</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>2.39844242947018</v>
@@ -1149,7 +1149,7 @@
         <v>1.84948964786868</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.443140611519111</v>
+        <v>1.44314061151911</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>39.54750501926412</v>
+        <v>39.31741979824427</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>35.9040264133825</v>
+        <v>36.46608434656731</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38.88352071214808</v>
+        <v>39.43914329226911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27.07575604707114</v>
+        <v>27.27559555044178</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.713254342640824</v>
+        <v>1.769485674926048</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9900782366198656</v>
+        <v>1.00663650516551</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>1.272950294079166</v>
+        <v>1.339780738154703</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.7922901131215579</v>
+        <v>0.8095513453074551</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>49.88653677633258</v>
+        <v>49.65881819795172</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>48.77234033883083</v>
+        <v>48.96323800739879</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>50.39061898965424</v>
+        <v>51.18911176291721</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>45.13522838032962</v>
+        <v>45.91745001875038</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>3.364795901008627</v>
+        <v>3.504641207039123</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.951574603982507</v>
+        <v>1.939276498378715</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.495896419726421</v>
+        <v>2.595995676612092</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.565896577427289</v>
+        <v>2.688264057554021</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>14.95312436726092</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10.932642209754</v>
+        <v>10.93264220975398</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4450486485473537</v>
@@ -1249,7 +1249,7 @@
         <v>0.3000621366864873</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.208203194323913</v>
+        <v>0.2082031943239128</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>15.85408150388561</v>
+        <v>15.64044730213032</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>17.5871732763845</v>
+        <v>17.57994152175869</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.51368558739686</v>
+        <v>12.73633177135728</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8.470125672445327</v>
+        <v>8.438306391258516</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3787098507304907</v>
+        <v>0.3751873207044594</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3405737217630275</v>
+        <v>0.3386653714116274</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2442360758419844</v>
+        <v>0.2501115526428675</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1569404837121763</v>
+        <v>0.1555035340104114</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>20.5084645177938</v>
+        <v>20.47399491806569</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>22.20096317240331</v>
+        <v>22.26768956089685</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>17.42299678905405</v>
+        <v>17.27284824889571</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.3114101895818</v>
+        <v>13.31058022532209</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5199837094542217</v>
+        <v>0.5236804403501382</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4518857406284223</v>
+        <v>0.4566459881768662</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.360917151172394</v>
+        <v>0.3571836220366357</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2613136138607383</v>
+        <v>0.2609524500111628</v>
       </c>
     </row>
     <row r="25">
